--- a/M.xlsx
+++ b/M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\Dropbox\Mestrado_Wesley_Rodrigues\Desenvolvimento\codigos\Python\MPC-WIQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377663D5-A09D-4905-A8AF-62AF3EB1CAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B396B3-214F-4247-9D8A-4FFCD504318E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2016" yWindow="12" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,8 +55,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -400,7 +409,2890 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1.3353261E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>2.6706522E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>4.0059783000000002E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>6.1858695999999998E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>8.3657608999999994E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>0.105456522</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>0.12518478299999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>0.14491304299999999</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>0.16464130399999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>0.168619565</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>0.17259782600000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>0.17657608699999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>0.33603260899999998</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>0.49548913</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>0.65494565199999999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>0.871565217</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1.088184783</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>1.304804348</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>1.253559783</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1.202315217</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>1.151070652</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>1.2964565219999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>1.441842391</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>1.5872282609999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>1.6446195649999999</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>1.7020108700000001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>1.7594021740000001</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1.715934783</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1.6724673910000001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1.629</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>1.7686630430000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1.9083260870000001</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>2.0479891299999999</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>2.044402174</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>2.040815217</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>2.0372282610000001</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>2.0625</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>2.0877717389999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>2.1130434779999998</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>2.225298913</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>2.3375543479999998</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>2.4498097830000001</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>2.4647282609999999</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>2.4796467390000001</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>2.4945652169999999</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>2.556684782</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>2.6188043479999998</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>2.680923913</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>2.625244565</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>2.5695652180000002</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>2.5138858700000002</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>2.5023423920000001</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>2.4907989129999999</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>2.4792554349999998</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>2.5728913040000001</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>2.6665271740000001</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>2.7601630429999999</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>2.8235869560000002</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>2.8870108700000001</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>2.9504347829999999</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>2.873070652</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>2.7957065220000001</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>2.7183423910000002</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>2.6846413039999999</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>2.650940217</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>2.6172391300000002</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>2.768885869</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>2.9205326089999999</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>3.0721793480000001</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>2.9321250000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>2.792070652</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>2.652016304</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>2.680548913</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>2.7090815209999999</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>2.7376141299999999</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>2.6940652169999999</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>2.6505163039999999</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>2.606967391</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>2.5901086950000001</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>2.5732499999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>2.5563913039999999</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>2.665711956</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>2.7750326090000001</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>2.8843532609999998</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>2.8285108700000001</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>2.7726684779999999</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>2.7168260869999998</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>2.62473913</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>2.5326521739999999</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>2.4405652170000001</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>2.4569836949999999</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>2.4734021739999998</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>2.4898206520000001</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>2.3319456519999999</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>2.1740706520000002</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>2.0161956519999999</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>2.094293478</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>2.172391304</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>2.2504891300000001</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>2.188173913</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>2.1258586949999998</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>2.0635434780000002</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>2.003054348</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>1.9425652170000001</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>1.882076087</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>1.8075000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>1.732923913</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>1.658347826</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>1.5626249999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1.4669021739999999</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>1.3711793480000001</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>1.3578586960000001</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>1.344538043</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>1.331217391</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>1.26423913</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>1.19726087</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>1.130282609</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>1.0283478260000001</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>0.92641304400000002</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>0.82447826099999999</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>0.78818478300000006</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>0.75189130400000004</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>0.71559782599999999</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>0.64411956500000001</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>0.57264130400000002</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>0.50116304300000003</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>0.41867934800000001</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>0.33619565200000001</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>0.25371195699999999</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>0.187076087</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>0.120440218</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>5.3804348000000002E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>3.5869564999999999E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>1.7934782999999999E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B374">
+        <v>1.3353261E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B375">
+        <v>2.6706522E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B376">
+        <v>4.0059783000000002E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B377">
+        <v>6.1858695999999998E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B378">
+        <v>8.3657608999999994E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B379">
+        <v>0.105456522</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B380">
+        <v>0.12518478299999999</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B381">
+        <v>0.14491304299999999</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B382">
+        <v>0.16464130399999999</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B383">
+        <v>0.168619565</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B384">
+        <v>0.17259782600000001</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B385">
+        <v>0.17657608699999999</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B386">
+        <v>0.33603260899999998</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B387">
+        <v>0.49548913</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B388">
+        <v>0.65494565199999999</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B389">
+        <v>0.871565217</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B390">
+        <v>1.088184783</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B391">
+        <v>1.304804348</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B392">
+        <v>1.253559783</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B393">
+        <v>1.202315217</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B394">
+        <v>1.151070652</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B395">
+        <v>1.2964565219999999</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B396">
+        <v>1.441842391</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B397">
+        <v>1.5872282609999999</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B398">
+        <v>1.6446195649999999</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B399">
+        <v>1.7020108700000001</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B400">
+        <v>1.7594021740000001</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B401">
+        <v>1.715934783</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B402">
+        <v>1.6724673910000001</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B403">
+        <v>1.629</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B404">
+        <v>1.7686630430000001</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B405">
+        <v>1.9083260870000001</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B406">
+        <v>2.0479891299999999</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B407">
+        <v>2.044402174</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B408">
+        <v>2.040815217</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B409">
+        <v>2.0372282610000001</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B410">
+        <v>2.0625</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B411">
+        <v>2.0877717389999999</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B412">
+        <v>2.1130434779999998</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B413">
+        <v>2.225298913</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B414">
+        <v>2.3375543479999998</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B415">
+        <v>2.4498097830000001</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B416">
+        <v>2.4647282609999999</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B417">
+        <v>2.4796467390000001</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B418">
+        <v>2.4945652169999999</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B419">
+        <v>2.556684782</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B420">
+        <v>2.6188043479999998</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B421">
+        <v>2.680923913</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B422">
+        <v>2.625244565</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B423">
+        <v>2.5695652180000002</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B424">
+        <v>2.5138858700000002</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B425">
+        <v>2.5023423920000001</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B426">
+        <v>2.4907989129999999</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B427">
+        <v>2.4792554349999998</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B428">
+        <v>2.5728913040000001</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B429">
+        <v>2.6665271740000001</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B430">
+        <v>2.7601630429999999</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B431">
+        <v>2.8235869560000002</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B432">
+        <v>2.8870108700000001</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B433">
+        <v>2.9504347829999999</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B434">
+        <v>2.873070652</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B435">
+        <v>2.7957065220000001</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B436">
+        <v>2.7183423910000002</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B437">
+        <v>2.6846413039999999</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B438">
+        <v>2.650940217</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B439">
+        <v>2.6172391300000002</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B440">
+        <v>2.768885869</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B441">
+        <v>2.9205326089999999</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B442">
+        <v>3.0721793480000001</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B443">
+        <v>2.9321250000000001</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B444">
+        <v>2.792070652</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B445">
+        <v>2.652016304</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B446">
+        <v>2.680548913</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B447">
+        <v>2.7090815209999999</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B448">
+        <v>2.7376141299999999</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B449">
+        <v>2.6940652169999999</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B450">
+        <v>2.6505163039999999</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B451">
+        <v>2.606967391</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B452">
+        <v>2.5901086950000001</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B453">
+        <v>2.5732499999999998</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B454">
+        <v>2.5563913039999999</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B455">
+        <v>2.665711956</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B456">
+        <v>2.7750326090000001</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B457">
+        <v>2.8843532609999998</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B458">
+        <v>2.8285108700000001</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B459">
+        <v>2.7726684779999999</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B460">
+        <v>2.7168260869999998</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B461">
+        <v>2.62473913</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B462">
+        <v>2.5326521739999999</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B463">
+        <v>2.4405652170000001</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B464">
+        <v>2.4569836949999999</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B465">
+        <v>2.4734021739999998</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B466">
+        <v>2.4898206520000001</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B467">
+        <v>2.3319456519999999</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B468">
+        <v>2.1740706520000002</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B469">
+        <v>2.0161956519999999</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B470">
+        <v>2.094293478</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B471">
+        <v>2.172391304</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B472">
+        <v>2.2504891300000001</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B473">
+        <v>2.188173913</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B474">
+        <v>2.1258586949999998</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B475">
+        <v>2.0635434780000002</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B476">
+        <v>2.003054348</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B477">
+        <v>1.9425652170000001</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B478">
+        <v>1.882076087</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B479">
+        <v>1.8075000000000001</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B480">
+        <v>1.732923913</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B481">
+        <v>1.658347826</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B482">
+        <v>1.5626249999999999</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B483">
+        <v>1.4669021739999999</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B484">
+        <v>1.3711793480000001</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B485">
+        <v>1.3578586960000001</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B486">
+        <v>1.344538043</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B487">
+        <v>1.331217391</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B488">
+        <v>1.26423913</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B489">
+        <v>1.19726087</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B490">
+        <v>1.130282609</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B491">
+        <v>1.0283478260000001</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B492">
+        <v>0.92641304400000002</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B493">
+        <v>0.82447826099999999</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B494">
+        <v>0.78818478300000006</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B495">
+        <v>0.75189130400000004</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B496">
+        <v>0.71559782599999999</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B497">
+        <v>0.64411956500000001</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B498">
+        <v>0.57264130400000002</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B499">
+        <v>0.50116304300000003</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B500">
+        <v>0.41867934800000001</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B501">
+        <v>0.33619565200000001</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B502">
+        <v>0.25371195699999999</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B503">
+        <v>0.187076087</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B504">
+        <v>0.120440218</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B505">
+        <v>5.3804348000000002E-2</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B506">
+        <v>3.5869564999999999E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B507">
+        <v>1.7934782999999999E-2</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B577">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>